--- a/paper/Submissions/PlantCell/TPC revision/Supplemental Figures & Tables/SDS 3. Results of single-isolate ANOVA on mixed effect model.xlsx
+++ b/paper/Submissions/PlantCell/TPC revision/Supplemental Figures & Tables/SDS 3. Results of single-isolate ANOVA on mixed effect model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Supplemental Figures &amp; Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A41D78F-9134-490C-812C-C8EB6BE5C978}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E4BA7-7F5D-43D8-8FD4-6C4F025FDF7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,12 +1172,12 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A2:G3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1185,19 +1185,19 @@
         <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1208,19 +1208,19 @@
         <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
         <v>14.903037373517099</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
       <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>1.13180608638299E-4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="G2" s="3">
         <v>1.0752157820638399E-2</v>
@@ -1231,19 +1231,19 @@
         <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
         <v>11.755917989481199</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
       <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>6.0650091057312498E-4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G3" s="3">
         <v>2.8808793252223401E-2</v>
@@ -1254,19 +1254,19 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
         <v>29.895318770094999</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>8.91070913180579E-4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
       <c r="G4">
         <v>7.7612369503532994E-2</v>
@@ -1277,19 +1277,19 @@
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
         <v>26.374465563783001</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>3.2678892422540202E-3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
       </c>
       <c r="G5">
         <v>7.7612369503532994E-2</v>
@@ -1300,19 +1300,19 @@
         <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
         <v>26.615385408895602</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>2.99500142247859E-3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
       </c>
       <c r="G6">
         <v>7.7612369503532994E-2</v>
@@ -1323,19 +1323,19 @@
         <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7">
         <v>27.703737037326299</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>2.0132044377290099E-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
       </c>
       <c r="G7">
         <v>7.7612369503532994E-2</v>
@@ -1346,19 +1346,19 @@
         <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
         <v>9.0092965374406297</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>2.6860978514650501E-3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
       <c r="G8">
         <v>8.5059765296393405E-2</v>
@@ -1369,19 +1369,19 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9">
         <v>25.461755675639601</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>4.5356818229978198E-3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
       <c r="G9">
         <v>8.6177954636958695E-2</v>
@@ -1392,19 +1392,19 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
         <v>7.2281904224664997</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>7.1767512088362897E-3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
       </c>
       <c r="G10">
         <v>0.17044784120986201</v>
@@ -1415,19 +1415,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11">
         <v>22.672550513455299</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>1.2021959064579099E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
       </c>
       <c r="G11">
         <v>0.190347685189169</v>
@@ -1438,19 +1438,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12">
         <v>21.038613995333399</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
       <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>2.08259108619312E-2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
       </c>
       <c r="G12">
         <v>0.28263736169763798</v>
@@ -1461,19 +1461,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
         <v>19.572839879295898</v>
       </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>3.3561831725787299E-2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
       </c>
       <c r="G13">
         <v>0.31441661893992201</v>
@@ -1484,19 +1484,19 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
         <v>19.3178697412114</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
       <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>3.6406134824622502E-2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
       </c>
       <c r="G14">
         <v>0.31441661893992201</v>
@@ -1507,19 +1507,19 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
         <v>19.517149202225301</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
       <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>3.4164982876348997E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
       </c>
       <c r="G15">
         <v>0.31441661893992201</v>
@@ -1530,19 +1530,19 @@
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
         <v>20.120546493490899</v>
       </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
       <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <v>2.8132917896988401E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
       </c>
       <c r="G16">
         <v>0.31441661893992201</v>
@@ -1553,19 +1553,19 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17">
         <v>5.6127070667312902</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1.7830696263363501E-2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
       </c>
       <c r="G17">
         <v>0.338783229003907</v>
@@ -1576,19 +1576,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18">
         <v>3.8254400727062099</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>5.0480090151896299E-2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
       </c>
       <c r="G18">
         <v>0.39963404703584599</v>
@@ -1599,19 +1599,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19">
         <v>3.91246116113579</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>4.7929357951609103E-2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
       </c>
       <c r="G19">
         <v>0.39963404703584599</v>
@@ -1622,19 +1622,19 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
         <v>4.4037166134161998</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>3.5860697906112897E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>0.39963404703584599</v>
@@ -1645,19 +1645,19 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
         <v>4.1023414684275803</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>4.2823868193342003E-2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
       </c>
       <c r="G21">
         <v>0.39963404703584599</v>
@@ -1668,19 +1668,19 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22">
         <v>4.0136915159122504</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>4.51322313576452E-2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
       </c>
       <c r="G22">
         <v>0.39963404703584599</v>
@@ -1691,19 +1691,19 @@
         <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23">
         <v>3.88460748092945</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>4.8730652155781803E-2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>84</v>
       </c>
       <c r="G23">
         <v>0.39963404703584599</v>
@@ -1714,19 +1714,19 @@
         <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
         <v>4.4299572282566002</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>3.5313392870765098E-2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
       </c>
       <c r="G24">
         <v>0.39963404703584599</v>
@@ -1737,19 +1737,19 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25">
         <v>17.683625460938199</v>
       </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
       <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>6.0540772003309401E-2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
       </c>
       <c r="G25">
         <v>0.413219123562307</v>
@@ -1760,19 +1760,19 @@
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
         <v>18.083647074295001</v>
       </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
       <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>5.3568920606566199E-2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
       </c>
       <c r="G26">
         <v>0.413219123562307</v>
@@ -1783,19 +1783,19 @@
         <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27">
         <v>17.664407041925301</v>
       </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>6.0895449788129399E-2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
       </c>
       <c r="G27">
         <v>0.413219123562307</v>
@@ -1806,19 +1806,19 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28">
         <v>3.25501075592627</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>7.1205470049709702E-2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
       <c r="G28">
         <v>0.48317997533731599</v>
@@ -1829,19 +1829,19 @@
         <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29">
         <v>3.3469873619003101</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>6.7328129898108505E-2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
       </c>
       <c r="G29">
         <v>0.48317997533731599</v>
@@ -1852,19 +1852,19 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30">
         <v>16.903703625801999</v>
       </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
       <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>7.6522115850356204E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>43</v>
       </c>
       <c r="G30">
         <v>0.48464006705225599</v>
@@ -1875,19 +1875,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31">
         <v>16.012075555766501</v>
       </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
       <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
         <v>9.9287245271689598E-2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
       </c>
       <c r="G31">
         <v>0.52147935398811995</v>
@@ -1898,19 +1898,19 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
         <v>15.6383684374248</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
       <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
         <v>0.11046308548384</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
       </c>
       <c r="G32">
         <v>0.52147935398811995</v>
@@ -1921,19 +1921,19 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33">
         <v>14.919344020068101</v>
       </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
       <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
         <v>0.135030215135442</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
       </c>
       <c r="G33">
         <v>0.52147935398811995</v>
@@ -1944,19 +1944,19 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34">
         <v>14.8604931719538</v>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
       <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
         <v>0.13723140894424199</v>
-      </c>
-      <c r="F34" t="s">
-        <v>47</v>
       </c>
       <c r="G34">
         <v>0.52147935398811995</v>
@@ -1967,19 +1967,19 @@
         <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35">
         <v>15.953849619701201</v>
       </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
       <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
         <v>0.100961151124906</v>
-      </c>
-      <c r="F35" t="s">
-        <v>56</v>
       </c>
       <c r="G35">
         <v>0.52147935398811995</v>
@@ -1989,20 +1989,20 @@
       <c r="A36">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
+        <v>94.4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
         <v>14.9695113214075</v>
       </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
       <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
         <v>0.133177378728074</v>
-      </c>
-      <c r="F36">
-        <v>94.4</v>
       </c>
       <c r="G36">
         <v>0.52147935398811995</v>
@@ -2013,19 +2013,19 @@
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37">
         <v>14.8869936495097</v>
       </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
       <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
         <v>0.136236503688108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>77</v>
       </c>
       <c r="G37">
         <v>0.52147935398811995</v>
@@ -2036,19 +2036,19 @@
         <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38">
         <v>15.2808627333718</v>
       </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
       <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
         <v>0.122152682377953</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
       </c>
       <c r="G38">
         <v>0.52147935398811995</v>
@@ -2059,19 +2059,19 @@
         <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39">
         <v>15.625900913671099</v>
       </c>
-      <c r="D39">
-        <v>10</v>
-      </c>
       <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>0.110853941987475</v>
-      </c>
-      <c r="F39" t="s">
-        <v>87</v>
       </c>
       <c r="G39">
         <v>0.52147935398811995</v>
@@ -2082,19 +2082,19 @@
         <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40">
         <v>15.5751851431336</v>
       </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
       <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>0.112456182806939</v>
-      </c>
-      <c r="F40" t="s">
-        <v>93</v>
       </c>
       <c r="G40">
         <v>0.52147935398811995</v>
@@ -2105,19 +2105,19 @@
         <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41">
         <v>2.96537942790538</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>8.5064499286094705E-2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
       </c>
       <c r="G41">
         <v>0.538741828811933</v>
@@ -2128,19 +2128,19 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42">
         <v>2.8076631508099399</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>9.3814943393425193E-2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
       </c>
       <c r="G42">
         <v>0.557026226398462</v>
@@ -2151,19 +2151,19 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43">
         <v>14.4578825547453</v>
       </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
       <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
         <v>0.15311168805158901</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
       </c>
       <c r="G43">
         <v>0.55944655249619102</v>
@@ -2174,19 +2174,19 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44">
         <v>2.4179853506709299</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>0.11994910569330999</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
       </c>
       <c r="G44">
         <v>0.56564836729937495</v>
@@ -2197,19 +2197,19 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
         <v>2.5915296448802998</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>0.107436532869706</v>
-      </c>
-      <c r="F45" t="s">
-        <v>25</v>
       </c>
       <c r="G45">
         <v>0.56564836729937495</v>
@@ -2220,19 +2220,19 @@
         <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46">
         <v>2.3530511568777501</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>0.12503806013986199</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
       </c>
       <c r="G46">
         <v>0.56564836729937495</v>
@@ -2243,19 +2243,19 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47">
         <v>2.3868182982914399</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>0.12236244497224801</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
       </c>
       <c r="G47">
         <v>0.56564836729937495</v>
@@ -2266,19 +2266,19 @@
         <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48">
         <v>2.66245800816978</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
       <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>0.102741852846489</v>
-      </c>
-      <c r="F48" t="s">
-        <v>77</v>
       </c>
       <c r="G48">
         <v>0.56564836729937495</v>
@@ -2289,19 +2289,19 @@
         <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49">
         <v>14.099513260803599</v>
       </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
       <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
         <v>0.16850070431344999</v>
-      </c>
-      <c r="F49" t="s">
-        <v>22</v>
       </c>
       <c r="G49">
         <v>0.57381021418940203</v>
@@ -2312,19 +2312,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50">
         <v>14.0855956183989</v>
       </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
       <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>0.16912301049792899</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
       </c>
       <c r="G50">
         <v>0.57381021418940203</v>
@@ -2335,19 +2335,19 @@
         <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51">
         <v>2.2246711240184198</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
       <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>0.13582157572831</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
       </c>
       <c r="G51">
         <v>0.58650225882679496</v>
@@ -2358,19 +2358,19 @@
         <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52">
         <v>2.1227651195543702</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>0.14512432631567501</v>
-      </c>
-      <c r="F52" t="s">
-        <v>23</v>
       </c>
       <c r="G52">
         <v>0.59886744873028197</v>
@@ -2381,19 +2381,19 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53">
         <v>1.9187513718309701</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
       <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>0.16599437370632</v>
-      </c>
-      <c r="F53" t="s">
-        <v>60</v>
       </c>
       <c r="G53">
         <v>0.59886744873028197</v>
@@ -2404,19 +2404,19 @@
         <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54">
         <v>1.88114178820964</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
       <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>0.17020443279702699</v>
-      </c>
-      <c r="F54" t="s">
-        <v>62</v>
       </c>
       <c r="G54">
         <v>0.59886744873028197</v>
@@ -2427,19 +2427,19 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55">
         <v>1.9466669742962599</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>0.16294646919018699</v>
-      </c>
-      <c r="F55" t="s">
-        <v>64</v>
       </c>
       <c r="G55">
         <v>0.59886744873028197</v>
@@ -2450,19 +2450,19 @@
         <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56">
         <v>1.91766611618575</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
       <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>0.166114174712373</v>
-      </c>
-      <c r="F56" t="s">
-        <v>82</v>
       </c>
       <c r="G56">
         <v>0.59886744873028197</v>
@@ -2473,19 +2473,19 @@
         <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57">
         <v>13.632418434824199</v>
       </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
       <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
         <v>0.190427872747159</v>
-      </c>
-      <c r="F57" t="s">
-        <v>84</v>
       </c>
       <c r="G57">
         <v>0.603021597032671</v>
@@ -2496,19 +2496,19 @@
         <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
         <v>13.704144536627</v>
       </c>
-      <c r="D58">
-        <v>10</v>
-      </c>
       <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
         <v>0.18691919032725299</v>
-      </c>
-      <c r="F58" t="s">
-        <v>92</v>
       </c>
       <c r="G58">
         <v>0.603021597032671</v>
@@ -2519,19 +2519,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59">
         <v>13.453492497460701</v>
       </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
       <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
         <v>0.19940964615039899</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
       </c>
       <c r="G59">
         <v>0.61109407691251405</v>
@@ -2542,19 +2542,19 @@
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60">
         <v>13.2586520051953</v>
       </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
       <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
         <v>0.20956771169322699</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
       </c>
       <c r="G60">
         <v>0.62215414408926695</v>
@@ -2565,19 +2565,19 @@
         <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61">
         <v>13.0573815357615</v>
       </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
       <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
         <v>0.220481229641597</v>
-      </c>
-      <c r="F61" t="s">
-        <v>79</v>
       </c>
       <c r="G61">
         <v>0.63471869139247605</v>
@@ -2588,19 +2588,19 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62">
         <v>1.7291306159112401</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>0.18852196401826901</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
       </c>
       <c r="G62">
         <v>0.63962809220484196</v>
@@ -2611,19 +2611,19 @@
         <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63">
         <v>1.6680485592137</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>0.19652011784734999</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
       </c>
       <c r="G63">
         <v>0.64377279984476798</v>
@@ -2634,19 +2634,19 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64">
         <v>1.5041399619389499</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
       <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>0.22003545835058799</v>
-      </c>
-      <c r="F64" t="s">
-        <v>48</v>
       </c>
       <c r="G64">
         <v>0.67430221107438404</v>
@@ -2657,19 +2657,19 @@
         <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65">
         <v>1.51194617754282</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>0.21884235696944199</v>
-      </c>
-      <c r="F65" t="s">
-        <v>79</v>
       </c>
       <c r="G65">
         <v>0.67430221107438404</v>
@@ -2680,19 +2680,19 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66">
         <v>1.34164667079647</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
       <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>0.24674378316475001</v>
-      </c>
-      <c r="F66" t="s">
-        <v>34</v>
       </c>
       <c r="G66">
         <v>0.67579530988070202</v>
@@ -2703,19 +2703,19 @@
         <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67">
         <v>1.3511771572776099</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
       <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>0.24507242998684001</v>
-      </c>
-      <c r="F67" t="s">
-        <v>78</v>
       </c>
       <c r="G67">
         <v>0.67579530988070202</v>
@@ -2726,19 +2726,19 @@
         <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68">
         <v>1.32903357015614</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
       <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>0.248977219429732</v>
-      </c>
-      <c r="F68" t="s">
-        <v>87</v>
       </c>
       <c r="G68">
         <v>0.67579530988070202</v>
@@ -2749,19 +2749,19 @@
         <v>187</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69">
         <v>1.3372192465269299</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>0.247524955607866</v>
-      </c>
-      <c r="F69" t="s">
-        <v>96</v>
       </c>
       <c r="G69">
         <v>0.67579530988070202</v>
@@ -2772,19 +2772,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70">
         <v>0.97797746695418297</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
       <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
         <v>0.32269864760019101</v>
-      </c>
-      <c r="F70" t="s">
-        <v>8</v>
       </c>
       <c r="G70">
         <v>0.68634197472596004</v>
@@ -2795,19 +2795,19 @@
         <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71">
         <v>1.11534434032346</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
       <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <v>0.29092315105612099</v>
-      </c>
-      <c r="F71" t="s">
-        <v>32</v>
       </c>
       <c r="G71">
         <v>0.68634197472596004</v>
@@ -2818,19 +2818,19 @@
         <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72">
         <v>1.10627180104259</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>0.29289381445347001</v>
-      </c>
-      <c r="F72" t="s">
-        <v>33</v>
       </c>
       <c r="G72">
         <v>0.68634197472596004</v>
@@ -2841,19 +2841,19 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73">
+        <v>47</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73">
         <v>1.0592453707643801</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
       <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>0.30338736147897299</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
       </c>
       <c r="G73">
         <v>0.68634197472596004</v>
@@ -2864,19 +2864,19 @@
         <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74">
         <v>0.973152104574732</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
       <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>0.32389530930673299</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
       </c>
       <c r="G74">
         <v>0.68634197472596004</v>
@@ -2887,19 +2887,19 @@
         <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75">
         <v>1.01104759117651</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
       <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
         <v>0.31465199935342397</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
       </c>
       <c r="G75">
         <v>0.68634197472596004</v>
@@ -2909,20 +2909,20 @@
       <c r="A76">
         <v>113</v>
       </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76">
+      <c r="B76">
+        <v>2004</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76">
         <v>1.00482155182491</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>0.31614663930352999</v>
-      </c>
-      <c r="F76">
-        <v>2004</v>
       </c>
       <c r="G76">
         <v>0.68634197472596004</v>
@@ -2933,19 +2933,19 @@
         <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77">
         <v>1.1631229583171001</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>0.28081880671909198</v>
-      </c>
-      <c r="F77" t="s">
-        <v>73</v>
       </c>
       <c r="G77">
         <v>0.68634197472596004</v>
@@ -2956,19 +2956,19 @@
         <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78">
         <v>0.96828064195294095</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
       <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>0.32510935644913902</v>
-      </c>
-      <c r="F78" t="s">
-        <v>88</v>
       </c>
       <c r="G78">
         <v>0.68634197472596004</v>
@@ -2979,19 +2979,19 @@
         <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79">
         <v>1.0313583585238499</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
       <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>0.30983984174075901</v>
-      </c>
-      <c r="F79" t="s">
-        <v>91</v>
       </c>
       <c r="G79">
         <v>0.68634197472596004</v>
@@ -3002,19 +3002,19 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80">
         <v>0.78541675440226599</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
       <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
         <v>0.37548960632628697</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
       </c>
       <c r="G80">
         <v>0.69944142354896499</v>
@@ -3025,19 +3025,19 @@
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81">
         <v>0.82088609177880001</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
       <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>0.36492122076731898</v>
-      </c>
-      <c r="F81" t="s">
-        <v>21</v>
       </c>
       <c r="G81">
         <v>0.69944142354896499</v>
@@ -3048,19 +3048,19 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82">
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82">
         <v>0.78957059499212601</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
       <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>0.37422999972001297</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
       </c>
       <c r="G82">
         <v>0.69944142354896499</v>
@@ -3071,19 +3071,19 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83">
         <v>0.87277349401230697</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
       <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
         <v>0.35018863091133201</v>
-      </c>
-      <c r="F83" t="s">
-        <v>50</v>
       </c>
       <c r="G83">
         <v>0.69944142354896499</v>
@@ -3094,19 +3094,19 @@
         <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84">
         <v>0.88189144366556504</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
       <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
         <v>0.34768415113631401</v>
-      </c>
-      <c r="F84" t="s">
-        <v>86</v>
       </c>
       <c r="G84">
         <v>0.69944142354896499</v>
@@ -3117,19 +3117,19 @@
         <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85">
         <v>0.79103570078096896</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
       <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
         <v>0.37378713597621099</v>
-      </c>
-      <c r="F85" t="s">
-        <v>93</v>
       </c>
       <c r="G85">
         <v>0.69944142354896499</v>
@@ -3140,19 +3140,19 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86">
         <v>12.2814962411413</v>
       </c>
-      <c r="D86">
-        <v>10</v>
-      </c>
       <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
         <v>0.266658695923707</v>
-      </c>
-      <c r="F86" t="s">
-        <v>5</v>
       </c>
       <c r="G86">
         <v>0.70626404284837996</v>
@@ -3163,19 +3163,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87">
         <v>12.2222675741569</v>
       </c>
-      <c r="D87">
-        <v>10</v>
-      </c>
       <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
         <v>0.27045638857194898</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
       </c>
       <c r="G87">
         <v>0.70626404284837996</v>
@@ -3186,19 +3186,19 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88">
         <v>12.418703380834099</v>
       </c>
-      <c r="D88">
-        <v>10</v>
-      </c>
       <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
         <v>0.25801083108532602</v>
-      </c>
-      <c r="F88" t="s">
-        <v>55</v>
       </c>
       <c r="G88">
         <v>0.70626404284837996</v>
@@ -3209,19 +3209,19 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89">
+        <v>81</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89">
         <v>12.151099852600799</v>
       </c>
-      <c r="D89">
-        <v>10</v>
-      </c>
       <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
         <v>0.27507125879357902</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
       </c>
       <c r="G89">
         <v>0.70626404284837996</v>
@@ -3232,19 +3232,19 @@
         <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90">
         <v>0.69332012415710698</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
       <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
         <v>0.40503737407698298</v>
-      </c>
-      <c r="F90" t="s">
-        <v>40</v>
       </c>
       <c r="G90">
         <v>0.71256575069098804</v>
@@ -3255,19 +3255,19 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91">
         <v>0.70881372781773799</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
       <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
         <v>0.39983790699808303</v>
-      </c>
-      <c r="F91" t="s">
-        <v>51</v>
       </c>
       <c r="G91">
         <v>0.71256575069098804</v>
@@ -3277,20 +3277,20 @@
       <c r="A92">
         <v>115</v>
       </c>
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92">
+      <c r="B92">
+        <v>94.4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92">
         <v>0.71697859346358905</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
       <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
         <v>0.39713677713594903</v>
-      </c>
-      <c r="F92">
-        <v>94.4</v>
       </c>
       <c r="G92">
         <v>0.71256575069098804</v>
@@ -3301,19 +3301,19 @@
         <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93">
         <v>0.66535324905646698</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
       <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
         <v>0.414676382252679</v>
-      </c>
-      <c r="F93" t="s">
-        <v>89</v>
       </c>
       <c r="G93">
         <v>0.71625920570917301</v>
@@ -3324,19 +3324,19 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94">
         <v>0.63525837222631298</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
       <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
         <v>0.42543304315889802</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
       </c>
       <c r="G94">
         <v>0.721716769644558</v>
@@ -3347,19 +3347,19 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95">
         <v>0.58979380922809899</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
       <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
         <v>0.442498862484966</v>
-      </c>
-      <c r="F95" t="s">
-        <v>7</v>
       </c>
       <c r="G95">
         <v>0.72478261958744405</v>
@@ -3370,19 +3370,19 @@
         <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96">
+        <v>38</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96">
         <v>0.60636154172304402</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>0.43616105217734102</v>
-      </c>
-      <c r="F96" t="s">
-        <v>38</v>
       </c>
       <c r="G96">
         <v>0.72478261958744405</v>
@@ -3393,19 +3393,19 @@
         <v>185</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
         <v>0.56251323368795003</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
       <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
         <v>0.45324939125749097</v>
-      </c>
-      <c r="F97" t="s">
-        <v>95</v>
       </c>
       <c r="G97">
         <v>0.72980834185528198</v>
@@ -3416,19 +3416,19 @@
         <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98">
+        <v>81</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98">
         <v>0.53488042478882203</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
       <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>0.46456222351807303</v>
-      </c>
-      <c r="F98" t="s">
-        <v>81</v>
       </c>
       <c r="G98">
         <v>0.73555685390361503</v>
@@ -3439,19 +3439,19 @@
         <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99">
         <v>0.49454569022883499</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
       <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
         <v>0.48190655297684398</v>
-      </c>
-      <c r="F99" t="s">
-        <v>65</v>
       </c>
       <c r="G99">
         <v>0.73840520214193806</v>
@@ -3462,19 +3462,19 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100">
+        <v>67</v>
+      </c>
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100">
         <v>0.50106625880025202</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
       <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
         <v>0.47903199164154198</v>
-      </c>
-      <c r="F100" t="s">
-        <v>67</v>
       </c>
       <c r="G100">
         <v>0.73840520214193806</v>
@@ -3485,19 +3485,19 @@
         <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101">
         <v>11.6895481044434</v>
       </c>
-      <c r="D101">
-        <v>10</v>
-      </c>
       <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
         <v>0.30637106252935498</v>
-      </c>
-      <c r="F101" t="s">
-        <v>25</v>
       </c>
       <c r="G101">
         <v>0.74628848564842898</v>
@@ -3508,19 +3508,19 @@
         <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102">
         <v>11.7676619854618</v>
       </c>
-      <c r="D102">
-        <v>10</v>
-      </c>
       <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
         <v>0.30090697312567</v>
-      </c>
-      <c r="F102" t="s">
-        <v>53</v>
       </c>
       <c r="G102">
         <v>0.74628848564842898</v>
@@ -3531,19 +3531,19 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103">
         <v>0.43277394643283101</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
       <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
         <v>0.51063094474267001</v>
-      </c>
-      <c r="F103" t="s">
-        <v>29</v>
       </c>
       <c r="G103">
         <v>0.76929029909089097</v>
@@ -3554,19 +3554,19 @@
         <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104">
         <v>0.417357153369321</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
       <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
         <v>0.51825872780860005</v>
-      </c>
-      <c r="F104" t="s">
-        <v>44</v>
       </c>
       <c r="G104">
         <v>0.76929029909089097</v>
@@ -3577,19 +3577,19 @@
         <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105">
         <v>11.415955354396299</v>
       </c>
-      <c r="D105">
-        <v>10</v>
-      </c>
       <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
         <v>0.32604215071196901</v>
-      </c>
-      <c r="F105" t="s">
-        <v>23</v>
       </c>
       <c r="G105">
         <v>0.77216468779046799</v>
@@ -3600,19 +3600,19 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
-      </c>
-      <c r="C106">
+        <v>60</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D106">
         <v>11.210196262765001</v>
       </c>
-      <c r="D106">
-        <v>10</v>
-      </c>
       <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
         <v>0.34137807249683799</v>
-      </c>
-      <c r="F106" t="s">
-        <v>60</v>
       </c>
       <c r="G106">
         <v>0.77216468779046799</v>
@@ -3623,19 +3623,19 @@
         <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107">
         <v>11.279578842672599</v>
       </c>
-      <c r="D107">
-        <v>10</v>
-      </c>
       <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
         <v>0.33615516369015602</v>
-      </c>
-      <c r="F107" t="s">
-        <v>78</v>
       </c>
       <c r="G107">
         <v>0.77216468779046799</v>
@@ -3646,19 +3646,19 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108">
         <v>10.023469701948899</v>
       </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
       <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
         <v>0.438436623583768</v>
-      </c>
-      <c r="F108" t="s">
-        <v>20</v>
       </c>
       <c r="G108">
         <v>0.77970164320783297</v>
@@ -3669,19 +3669,19 @@
         <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
-      </c>
-      <c r="C109">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109">
         <v>10.307144098612699</v>
       </c>
-      <c r="D109">
-        <v>10</v>
-      </c>
       <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
         <v>0.41397232911386</v>
-      </c>
-      <c r="F109" t="s">
-        <v>39</v>
       </c>
       <c r="G109">
         <v>0.77970164320783297</v>
@@ -3692,19 +3692,19 @@
         <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110">
         <v>10.979659835514401</v>
       </c>
-      <c r="D110">
-        <v>10</v>
-      </c>
       <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
         <v>0.35910488858171902</v>
-      </c>
-      <c r="F110" t="s">
-        <v>45</v>
       </c>
       <c r="G110">
         <v>0.77970164320783297</v>
@@ -3715,19 +3715,19 @@
         <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111">
+        <v>46</v>
+      </c>
+      <c r="C111" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111">
         <v>10.7047063081605</v>
       </c>
-      <c r="D111">
-        <v>10</v>
-      </c>
       <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
         <v>0.38098209302823499</v>
-      </c>
-      <c r="F111" t="s">
-        <v>46</v>
       </c>
       <c r="G111">
         <v>0.77970164320783297</v>
@@ -3738,19 +3738,19 @@
         <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112">
+        <v>54</v>
+      </c>
+      <c r="C112" t="s">
+        <v>101</v>
+      </c>
+      <c r="D112">
         <v>10.776755800501499</v>
       </c>
-      <c r="D112">
-        <v>10</v>
-      </c>
       <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
         <v>0.37517333572967698</v>
-      </c>
-      <c r="F112" t="s">
-        <v>54</v>
       </c>
       <c r="G112">
         <v>0.77970164320783297</v>
@@ -3761,19 +3761,19 @@
         <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113">
         <v>9.9114029604477594</v>
       </c>
-      <c r="D113">
-        <v>10</v>
-      </c>
       <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
         <v>0.44830035345180602</v>
-      </c>
-      <c r="F113" t="s">
-        <v>57</v>
       </c>
       <c r="G113">
         <v>0.77970164320783297</v>
@@ -3784,19 +3784,19 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114">
+        <v>61</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114">
         <v>10.619687603533899</v>
       </c>
-      <c r="D114">
-        <v>10</v>
-      </c>
       <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
         <v>0.38790471874275101</v>
-      </c>
-      <c r="F114" t="s">
-        <v>61</v>
       </c>
       <c r="G114">
         <v>0.77970164320783297</v>
@@ -3807,19 +3807,19 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
-      </c>
-      <c r="C115">
+        <v>65</v>
+      </c>
+      <c r="C115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115">
         <v>10.6950823120428</v>
       </c>
-      <c r="D115">
-        <v>10</v>
-      </c>
       <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
         <v>0.381762030184917</v>
-      </c>
-      <c r="F115" t="s">
-        <v>65</v>
       </c>
       <c r="G115">
         <v>0.77970164320783297</v>
@@ -3830,19 +3830,19 @@
         <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C116">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116">
         <v>10.069975696526299</v>
       </c>
-      <c r="D116">
-        <v>10</v>
-      </c>
       <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
         <v>0.43437568783151498</v>
-      </c>
-      <c r="F116" t="s">
-        <v>71</v>
       </c>
       <c r="G116">
         <v>0.77970164320783297</v>
@@ -3853,19 +3853,19 @@
         <v>142</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117">
+        <v>73</v>
+      </c>
+      <c r="C117" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117">
         <v>10.2766748871665</v>
       </c>
-      <c r="D117">
-        <v>10</v>
-      </c>
       <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
         <v>0.416564261400103</v>
-      </c>
-      <c r="F117" t="s">
-        <v>73</v>
       </c>
       <c r="G117">
         <v>0.77970164320783297</v>
@@ -3876,19 +3876,19 @@
         <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
-      </c>
-      <c r="C118">
+        <v>82</v>
+      </c>
+      <c r="C118" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118">
         <v>9.8763676189998595</v>
       </c>
-      <c r="D118">
-        <v>10</v>
-      </c>
       <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
         <v>0.45140621448874502</v>
-      </c>
-      <c r="F118" t="s">
-        <v>82</v>
       </c>
       <c r="G118">
         <v>0.77970164320783297</v>
@@ -3899,19 +3899,19 @@
         <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
-      </c>
-      <c r="C119">
+        <v>83</v>
+      </c>
+      <c r="C119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D119">
         <v>9.9665682854050495</v>
       </c>
-      <c r="D119">
-        <v>10</v>
-      </c>
       <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
         <v>0.44343125900772701</v>
-      </c>
-      <c r="F119" t="s">
-        <v>83</v>
       </c>
       <c r="G119">
         <v>0.77970164320783297</v>
@@ -3922,19 +3922,19 @@
         <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C120">
+        <v>91</v>
+      </c>
+      <c r="C120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120">
         <v>10.511263345168199</v>
       </c>
-      <c r="D120">
-        <v>10</v>
-      </c>
       <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
         <v>0.39683886564641302</v>
-      </c>
-      <c r="F120" t="s">
-        <v>91</v>
       </c>
       <c r="G120">
         <v>0.77970164320783297</v>
@@ -3945,19 +3945,19 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
-      </c>
-      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121">
         <v>9.4750514977965796</v>
       </c>
-      <c r="D121">
-        <v>10</v>
-      </c>
       <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121">
         <v>0.48768897755368901</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
       </c>
       <c r="G121">
         <v>0.78165096782889598</v>
@@ -3968,19 +3968,19 @@
         <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
-      </c>
-      <c r="C122">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>101</v>
+      </c>
+      <c r="D122">
         <v>9.3856339613862705</v>
       </c>
-      <c r="D122">
-        <v>10</v>
-      </c>
       <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
         <v>0.495937816160887</v>
-      </c>
-      <c r="F122" t="s">
-        <v>44</v>
       </c>
       <c r="G122">
         <v>0.78165096782889598</v>
@@ -3991,19 +3991,19 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
-      </c>
-      <c r="C123">
+        <v>64</v>
+      </c>
+      <c r="C123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123">
         <v>9.6961039490158605</v>
       </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
       <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
         <v>0.467547418497826</v>
-      </c>
-      <c r="F123" t="s">
-        <v>64</v>
       </c>
       <c r="G123">
         <v>0.78165096782889598</v>
@@ -4014,19 +4014,19 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
-      </c>
-      <c r="C124">
+        <v>76</v>
+      </c>
+      <c r="C124" t="s">
+        <v>101</v>
+      </c>
+      <c r="D124">
         <v>9.3449823021298695</v>
       </c>
-      <c r="D124">
-        <v>10</v>
-      </c>
       <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
         <v>0.49970618421639601</v>
-      </c>
-      <c r="F124" t="s">
-        <v>76</v>
       </c>
       <c r="G124">
         <v>0.78165096782889598</v>
@@ -4037,19 +4037,19 @@
         <v>176</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C125">
+        <v>90</v>
+      </c>
+      <c r="C125" t="s">
+        <v>101</v>
+      </c>
+      <c r="D125">
         <v>9.3213474756189907</v>
       </c>
-      <c r="D125">
-        <v>10</v>
-      </c>
       <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
         <v>0.50190220039539601</v>
-      </c>
-      <c r="F125" t="s">
-        <v>90</v>
       </c>
       <c r="G125">
         <v>0.78165096782889598</v>
@@ -4060,19 +4060,19 @@
         <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
-      </c>
-      <c r="C126">
+        <v>94</v>
+      </c>
+      <c r="C126" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126">
         <v>9.3256875177345506</v>
       </c>
-      <c r="D126">
-        <v>10</v>
-      </c>
       <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
         <v>0.50149867044855501</v>
-      </c>
-      <c r="F126" t="s">
-        <v>94</v>
       </c>
       <c r="G126">
         <v>0.78165096782889598</v>
@@ -4083,19 +4083,19 @@
         <v>88</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
-      </c>
-      <c r="C127">
+        <v>48</v>
+      </c>
+      <c r="C127" t="s">
+        <v>101</v>
+      </c>
+      <c r="D127">
         <v>9.2120420058771693</v>
       </c>
-      <c r="D127">
-        <v>10</v>
-      </c>
       <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
         <v>0.51210534039818201</v>
-      </c>
-      <c r="F127" t="s">
-        <v>48</v>
       </c>
       <c r="G127">
         <v>0.78467753770689197</v>
@@ -4106,19 +4106,19 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D128">
         <v>8.9645664738130701</v>
       </c>
-      <c r="D128">
-        <v>10</v>
-      </c>
       <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
         <v>0.53546963018679705</v>
-      </c>
-      <c r="F128" t="s">
-        <v>7</v>
       </c>
       <c r="G128">
         <v>0.79483773230852695</v>
@@ -4129,19 +4129,19 @@
         <v>94</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
-      </c>
-      <c r="C129">
+        <v>51</v>
+      </c>
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
+      <c r="D129">
         <v>8.96643423879501</v>
       </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
       <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
         <v>0.53529203734032704</v>
-      </c>
-      <c r="F129" t="s">
-        <v>51</v>
       </c>
       <c r="G129">
         <v>0.79483773230852695</v>
@@ -4152,19 +4152,19 @@
         <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
-      </c>
-      <c r="C130">
+        <v>89</v>
+      </c>
+      <c r="C130" t="s">
+        <v>101</v>
+      </c>
+      <c r="D130">
         <v>8.7854729660144102</v>
       </c>
-      <c r="D130">
-        <v>10</v>
-      </c>
       <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
         <v>0.55257694387224299</v>
-      </c>
-      <c r="F130" t="s">
-        <v>89</v>
       </c>
       <c r="G130">
         <v>0.79537590405853098</v>
@@ -4175,19 +4175,19 @@
         <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
-      </c>
-      <c r="C131">
+        <v>97</v>
+      </c>
+      <c r="C131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D131">
         <v>8.8370913124025101</v>
       </c>
-      <c r="D131">
-        <v>10</v>
-      </c>
       <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
         <v>0.54763097577589903</v>
-      </c>
-      <c r="F131" t="s">
-        <v>97</v>
       </c>
       <c r="G131">
         <v>0.79537590405853098</v>
@@ -4198,19 +4198,19 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D132">
         <v>8.4527440585065605</v>
       </c>
-      <c r="D132">
-        <v>10</v>
-      </c>
       <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
         <v>0.58470302743945302</v>
-      </c>
-      <c r="F132" t="s">
-        <v>17</v>
       </c>
       <c r="G132">
         <v>0.80001810138552099</v>
@@ -4221,19 +4221,19 @@
         <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>101</v>
-      </c>
-      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133">
         <v>8.4034976550505096</v>
       </c>
-      <c r="D133">
-        <v>10</v>
-      </c>
       <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
         <v>0.58948702207354198</v>
-      </c>
-      <c r="F133" t="s">
-        <v>36</v>
       </c>
       <c r="G133">
         <v>0.80001810138552099</v>
@@ -4244,19 +4244,19 @@
         <v>90</v>
       </c>
       <c r="B134" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134">
+        <v>49</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134">
         <v>8.6420476310803593</v>
       </c>
-      <c r="D134">
-        <v>10</v>
-      </c>
       <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
         <v>0.56637757970493396</v>
-      </c>
-      <c r="F134" t="s">
-        <v>49</v>
       </c>
       <c r="G134">
         <v>0.80001810138552099</v>
@@ -4267,19 +4267,19 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135">
+        <v>70</v>
+      </c>
+      <c r="C135" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135">
         <v>8.4432381170178896</v>
       </c>
-      <c r="D135">
-        <v>10</v>
-      </c>
       <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
         <v>0.58562600184510105</v>
-      </c>
-      <c r="F135" t="s">
-        <v>70</v>
       </c>
       <c r="G135">
         <v>0.80001810138552099</v>
@@ -4290,19 +4290,19 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>101</v>
-      </c>
-      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136">
         <v>8.2492920630113495</v>
       </c>
-      <c r="D136">
-        <v>10</v>
-      </c>
       <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
         <v>0.60450075134150605</v>
-      </c>
-      <c r="F136" t="s">
-        <v>12</v>
       </c>
       <c r="G136">
         <v>0.80883903348511299</v>
@@ -4313,19 +4313,19 @@
         <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137">
         <v>7.8594707996595501</v>
       </c>
-      <c r="D137">
-        <v>10</v>
-      </c>
       <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
         <v>0.64256145787546903</v>
-      </c>
-      <c r="F137" t="s">
-        <v>21</v>
       </c>
       <c r="G137">
         <v>0.84626415135319</v>
@@ -4336,19 +4336,19 @@
         <v>96</v>
       </c>
       <c r="B138" t="s">
-        <v>101</v>
-      </c>
-      <c r="C138">
+        <v>52</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138">
         <v>7.7802985002663601</v>
       </c>
-      <c r="D138">
-        <v>10</v>
-      </c>
       <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
         <v>0.65028718998718804</v>
-      </c>
-      <c r="F138" t="s">
-        <v>52</v>
       </c>
       <c r="G138">
         <v>0.84626415135319</v>
@@ -4359,19 +4359,19 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
-      </c>
-      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139">
         <v>7.4674714019865798</v>
       </c>
-      <c r="D139">
-        <v>10</v>
-      </c>
       <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
         <v>0.68069758847314599</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
       </c>
       <c r="G139">
         <v>0.85914512446188296</v>
@@ -4382,19 +4382,19 @@
         <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>101</v>
-      </c>
-      <c r="C140">
+        <v>58</v>
+      </c>
+      <c r="C140" t="s">
+        <v>101</v>
+      </c>
+      <c r="D140">
         <v>7.3989978960259704</v>
       </c>
-      <c r="D140">
-        <v>10</v>
-      </c>
       <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
         <v>0.68731609956950601</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
       </c>
       <c r="G140">
         <v>0.85914512446188296</v>
@@ -4405,19 +4405,19 @@
         <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>101</v>
-      </c>
-      <c r="C141">
+        <v>68</v>
+      </c>
+      <c r="C141" t="s">
+        <v>101</v>
+      </c>
+      <c r="D141">
         <v>7.5591112684503603</v>
       </c>
-      <c r="D141">
-        <v>10</v>
-      </c>
       <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
         <v>0.67181492819819799</v>
-      </c>
-      <c r="F141" t="s">
-        <v>68</v>
       </c>
       <c r="G141">
         <v>0.85914512446188296</v>
@@ -4428,19 +4428,19 @@
         <v>76</v>
       </c>
       <c r="B142" t="s">
-        <v>101</v>
-      </c>
-      <c r="C142">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142">
         <v>7.2990299707446198</v>
       </c>
-      <c r="D142">
-        <v>10</v>
-      </c>
       <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
         <v>0.69694517533447897</v>
-      </c>
-      <c r="F142" t="s">
-        <v>42</v>
       </c>
       <c r="G142">
         <v>0.85986742411396799</v>
@@ -4451,19 +4451,19 @@
         <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
-      </c>
-      <c r="C143">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>100</v>
+      </c>
+      <c r="D143">
         <v>0.24768697582277699</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
       <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
         <v>0.61870847843503896</v>
-      </c>
-      <c r="F143" t="s">
-        <v>19</v>
       </c>
       <c r="G143">
         <v>0.87727321569147398</v>
@@ -4474,19 +4474,19 @@
         <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
-      </c>
-      <c r="C144">
+        <v>27</v>
+      </c>
+      <c r="C144" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144">
         <v>0.24848526200116899</v>
       </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
       <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
         <v>0.61814367621690203</v>
-      </c>
-      <c r="F144" t="s">
-        <v>27</v>
       </c>
       <c r="G144">
         <v>0.87727321569147398</v>
@@ -4497,19 +4497,19 @@
         <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145">
+        <v>70</v>
+      </c>
+      <c r="C145" t="s">
+        <v>100</v>
+      </c>
+      <c r="D145">
         <v>0.27308876301869001</v>
       </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
       <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
         <v>0.60126728959194897</v>
-      </c>
-      <c r="F145" t="s">
-        <v>70</v>
       </c>
       <c r="G145">
         <v>0.87727321569147398</v>
@@ -4520,19 +4520,19 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146">
         <v>0.18905966716675701</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
       <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
         <v>0.66370040328810098</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
       </c>
       <c r="G146">
         <v>0.92373211488650997</v>
@@ -4543,19 +4543,19 @@
         <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147">
         <v>0.169400990122651</v>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
       <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
         <v>0.68064471623216505</v>
-      </c>
-      <c r="F147" t="s">
-        <v>20</v>
       </c>
       <c r="G147">
         <v>0.92373211488650997</v>
@@ -4566,19 +4566,19 @@
         <v>43</v>
       </c>
       <c r="B148" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>100</v>
+      </c>
+      <c r="D148">
         <v>0.17598467303179599</v>
       </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
       <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
         <v>0.67484690275308001</v>
-      </c>
-      <c r="F148" t="s">
-        <v>26</v>
       </c>
       <c r="G148">
         <v>0.92373211488650997</v>
@@ -4589,19 +4589,19 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>101</v>
-      </c>
-      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>101</v>
+      </c>
+      <c r="D149">
         <v>6.0946174122134904</v>
       </c>
-      <c r="D149">
-        <v>10</v>
-      </c>
       <c r="E149">
+        <v>10</v>
+      </c>
+      <c r="F149">
         <v>0.80725221180025397</v>
-      </c>
-      <c r="F149" t="s">
-        <v>16</v>
       </c>
       <c r="G149">
         <v>0.94254399500739605</v>
@@ -4611,20 +4611,20 @@
       <c r="A150">
         <v>114</v>
       </c>
-      <c r="B150" t="s">
-        <v>101</v>
-      </c>
-      <c r="C150">
+      <c r="B150">
+        <v>2004</v>
+      </c>
+      <c r="C150" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150">
         <v>6.4411238687903296</v>
       </c>
-      <c r="D150">
-        <v>10</v>
-      </c>
       <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
         <v>0.77694125153212901</v>
-      </c>
-      <c r="F150">
-        <v>2004</v>
       </c>
       <c r="G150">
         <v>0.94254399500739605</v>
@@ -4635,19 +4635,19 @@
         <v>122</v>
       </c>
       <c r="B151" t="s">
-        <v>101</v>
-      </c>
-      <c r="C151">
+        <v>63</v>
+      </c>
+      <c r="C151" t="s">
+        <v>101</v>
+      </c>
+      <c r="D151">
         <v>6.0922182745612901</v>
       </c>
-      <c r="D151">
-        <v>10</v>
-      </c>
       <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151">
         <v>0.80745684161222997</v>
-      </c>
-      <c r="F151" t="s">
-        <v>63</v>
       </c>
       <c r="G151">
         <v>0.94254399500739605</v>
@@ -4658,19 +4658,19 @@
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
-      </c>
-      <c r="C152">
+        <v>67</v>
+      </c>
+      <c r="C152" t="s">
+        <v>101</v>
+      </c>
+      <c r="D152">
         <v>5.9280313795296902</v>
       </c>
-      <c r="D152">
-        <v>10</v>
-      </c>
       <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152">
         <v>0.82127304018556402</v>
-      </c>
-      <c r="F152" t="s">
-        <v>67</v>
       </c>
       <c r="G152">
         <v>0.94254399500739605</v>
@@ -4681,19 +4681,19 @@
         <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
-      </c>
-      <c r="C153">
+        <v>69</v>
+      </c>
+      <c r="C153" t="s">
+        <v>101</v>
+      </c>
+      <c r="D153">
         <v>6.0407641062925101</v>
       </c>
-      <c r="D153">
-        <v>10</v>
-      </c>
       <c r="E153">
+        <v>10</v>
+      </c>
+      <c r="F153">
         <v>0.81182686551819305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>69</v>
       </c>
       <c r="G153">
         <v>0.94254399500739605</v>
@@ -4704,19 +4704,19 @@
         <v>188</v>
       </c>
       <c r="B154" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154">
+        <v>96</v>
+      </c>
+      <c r="C154" t="s">
+        <v>101</v>
+      </c>
+      <c r="D154">
         <v>5.9013056177504497</v>
       </c>
-      <c r="D154">
-        <v>10</v>
-      </c>
       <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
         <v>0.82348580616435696</v>
-      </c>
-      <c r="F154" t="s">
-        <v>96</v>
       </c>
       <c r="G154">
         <v>0.94254399500739605</v>
@@ -4727,19 +4727,19 @@
         <v>133</v>
       </c>
       <c r="B155" t="s">
-        <v>100</v>
-      </c>
-      <c r="C155">
+        <v>69</v>
+      </c>
+      <c r="C155" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155">
         <v>0.14355042895415601</v>
       </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
       <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
         <v>0.70477660953939603</v>
-      </c>
-      <c r="F155" t="s">
-        <v>69</v>
       </c>
       <c r="G155">
         <v>0.94301095642595301</v>
@@ -4750,19 +4750,19 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>100</v>
-      </c>
-      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>100</v>
+      </c>
+      <c r="D156">
         <v>0.13243568925608801</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
       <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
         <v>0.71591988053322397</v>
-      </c>
-      <c r="F156" t="s">
-        <v>12</v>
       </c>
       <c r="G156">
         <v>0.94461650903689198</v>
@@ -4773,19 +4773,19 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>100</v>
-      </c>
-      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>100</v>
+      </c>
+      <c r="D157">
         <v>0.12112460536420901</v>
       </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
       <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
         <v>0.72781795075336897</v>
-      </c>
-      <c r="F157" t="s">
-        <v>6</v>
       </c>
       <c r="G157">
         <v>0.94659483231423203</v>
@@ -4796,19 +4796,19 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
-      </c>
-      <c r="C158">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158">
         <v>0.11019258253403599</v>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
       <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
         <v>0.73992498980010801</v>
-      </c>
-      <c r="F158" t="s">
-        <v>9</v>
       </c>
       <c r="G158">
         <v>0.94659483231423203</v>
@@ -4819,19 +4819,19 @@
         <v>145</v>
       </c>
       <c r="B159" t="s">
-        <v>100</v>
-      </c>
-      <c r="C159">
+        <v>75</v>
+      </c>
+      <c r="C159" t="s">
+        <v>100</v>
+      </c>
+      <c r="D159">
         <v>0.103803886773502</v>
       </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
       <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
         <v>0.74731170972176197</v>
-      </c>
-      <c r="F159" t="s">
-        <v>75</v>
       </c>
       <c r="G159">
         <v>0.94659483231423203</v>
@@ -4842,19 +4842,19 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>100</v>
-      </c>
-      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>100</v>
+      </c>
+      <c r="D160">
         <v>8.8026604491580798E-2</v>
       </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
       <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
         <v>0.76670107126841203</v>
-      </c>
-      <c r="F160" t="s">
-        <v>10</v>
       </c>
       <c r="G160">
         <v>0.94760210537921297</v>
@@ -4865,19 +4865,19 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
-      </c>
-      <c r="C161">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>100</v>
+      </c>
+      <c r="D161">
         <v>6.6576816296477895E-2</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
       <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
         <v>0.79638773924133699</v>
-      </c>
-      <c r="F161" t="s">
-        <v>17</v>
       </c>
       <c r="G161">
         <v>0.94760210537921297</v>
@@ -4888,19 +4888,19 @@
         <v>63</v>
       </c>
       <c r="B162" t="s">
-        <v>100</v>
-      </c>
-      <c r="C162">
+        <v>36</v>
+      </c>
+      <c r="C162" t="s">
+        <v>100</v>
+      </c>
+      <c r="D162">
         <v>6.8117084745861298E-2</v>
       </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
       <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
         <v>0.79409829146351496</v>
-      </c>
-      <c r="F162" t="s">
-        <v>36</v>
       </c>
       <c r="G162">
         <v>0.94760210537921297</v>
@@ -4911,19 +4911,19 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
-      </c>
-      <c r="C163">
+        <v>68</v>
+      </c>
+      <c r="C163" t="s">
+        <v>100</v>
+      </c>
+      <c r="D163">
         <v>6.5516187004464793E-2</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
       <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
         <v>0.79798072031933798</v>
-      </c>
-      <c r="F163" t="s">
-        <v>68</v>
       </c>
       <c r="G163">
         <v>0.94760210537921297</v>
@@ -4934,19 +4934,19 @@
         <v>143</v>
       </c>
       <c r="B164" t="s">
-        <v>100</v>
-      </c>
-      <c r="C164">
+        <v>74</v>
+      </c>
+      <c r="C164" t="s">
+        <v>100</v>
+      </c>
+      <c r="D164">
         <v>8.4283526671025094E-2</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
       <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
         <v>0.77157430605149802</v>
-      </c>
-      <c r="F164" t="s">
-        <v>74</v>
       </c>
       <c r="G164">
         <v>0.94760210537921297</v>
@@ -4957,19 +4957,19 @@
         <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
-      </c>
-      <c r="C165">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>100</v>
+      </c>
+      <c r="D165">
         <v>5.19862755843679E-2</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
       <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
         <v>0.819642361028878</v>
-      </c>
-      <c r="F165" t="s">
-        <v>15</v>
       </c>
       <c r="G165">
         <v>0.95739071079230198</v>
@@ -4980,19 +4980,19 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>100</v>
-      </c>
-      <c r="C166">
+        <v>39</v>
+      </c>
+      <c r="C166" t="s">
+        <v>100</v>
+      </c>
+      <c r="D166">
         <v>4.8113332898020701E-2</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
       <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
         <v>0.82637935036809196</v>
-      </c>
-      <c r="F166" t="s">
-        <v>39</v>
       </c>
       <c r="G166">
         <v>0.95739071079230198</v>
@@ -5003,19 +5003,19 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>101</v>
-      </c>
-      <c r="C167">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167">
         <v>5.4785765042536001</v>
       </c>
-      <c r="D167">
-        <v>10</v>
-      </c>
       <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
         <v>0.85700633524016001</v>
-      </c>
-      <c r="F167" t="s">
-        <v>9</v>
       </c>
       <c r="G167">
         <v>0.95783060997429603</v>
@@ -5026,19 +5026,19 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>101</v>
-      </c>
-      <c r="C168">
+        <v>34</v>
+      </c>
+      <c r="C168" t="s">
+        <v>101</v>
+      </c>
+      <c r="D168">
         <v>5.5242884652567801</v>
       </c>
-      <c r="D168">
-        <v>10</v>
-      </c>
       <c r="E168">
+        <v>10</v>
+      </c>
+      <c r="F168">
         <v>0.85352338034894404</v>
-      </c>
-      <c r="F168" t="s">
-        <v>34</v>
       </c>
       <c r="G168">
         <v>0.95783060997429603</v>
@@ -5049,19 +5049,19 @@
         <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>101</v>
-      </c>
-      <c r="C169">
+        <v>28</v>
+      </c>
+      <c r="C169" t="s">
+        <v>101</v>
+      </c>
+      <c r="D169">
         <v>5.1236636609847697</v>
       </c>
-      <c r="D169">
-        <v>10</v>
-      </c>
       <c r="E169">
+        <v>10</v>
+      </c>
+      <c r="F169">
         <v>0.88276544249465305</v>
-      </c>
-      <c r="F169" t="s">
-        <v>28</v>
       </c>
       <c r="G169">
         <v>0.95882623760770702</v>
@@ -5072,19 +5072,19 @@
         <v>50</v>
       </c>
       <c r="B170" t="s">
-        <v>101</v>
-      </c>
-      <c r="C170">
+        <v>29</v>
+      </c>
+      <c r="C170" t="s">
+        <v>101</v>
+      </c>
+      <c r="D170">
         <v>4.5762421290314599</v>
       </c>
-      <c r="D170">
-        <v>10</v>
-      </c>
       <c r="E170">
+        <v>10</v>
+      </c>
+      <c r="F170">
         <v>0.91763185163357497</v>
-      </c>
-      <c r="F170" t="s">
-        <v>29</v>
       </c>
       <c r="G170">
         <v>0.95882623760770702</v>
@@ -5095,19 +5095,19 @@
         <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>101</v>
-      </c>
-      <c r="C171">
+        <v>30</v>
+      </c>
+      <c r="C171" t="s">
+        <v>101</v>
+      </c>
+      <c r="D171">
         <v>5.1760396466969301</v>
       </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
       <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171">
         <v>0.87911227065180397</v>
-      </c>
-      <c r="F171" t="s">
-        <v>30</v>
       </c>
       <c r="G171">
         <v>0.95882623760770702</v>
@@ -5118,19 +5118,19 @@
         <v>74</v>
       </c>
       <c r="B172" t="s">
-        <v>101</v>
-      </c>
-      <c r="C172">
+        <v>41</v>
+      </c>
+      <c r="C172" t="s">
+        <v>101</v>
+      </c>
+      <c r="D172">
         <v>4.8815088696712197</v>
       </c>
-      <c r="D172">
-        <v>10</v>
-      </c>
       <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172">
         <v>0.89895138689169696</v>
-      </c>
-      <c r="F172" t="s">
-        <v>41</v>
       </c>
       <c r="G172">
         <v>0.95882623760770702</v>
@@ -5141,19 +5141,19 @@
         <v>92</v>
       </c>
       <c r="B173" t="s">
-        <v>101</v>
-      </c>
-      <c r="C173">
+        <v>50</v>
+      </c>
+      <c r="C173" t="s">
+        <v>101</v>
+      </c>
+      <c r="D173">
         <v>4.3806201075749698</v>
       </c>
-      <c r="D173">
-        <v>10</v>
-      </c>
       <c r="E173">
+        <v>10</v>
+      </c>
+      <c r="F173">
         <v>0.92854751431483196</v>
-      </c>
-      <c r="F173" t="s">
-        <v>50</v>
       </c>
       <c r="G173">
         <v>0.95882623760770702</v>
@@ -5164,19 +5164,19 @@
         <v>144</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
-      </c>
-      <c r="C174">
+        <v>74</v>
+      </c>
+      <c r="C174" t="s">
+        <v>101</v>
+      </c>
+      <c r="D174">
         <v>4.5018763439682399</v>
       </c>
-      <c r="D174">
-        <v>10</v>
-      </c>
       <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174">
         <v>0.92188026019841196</v>
-      </c>
-      <c r="F174" t="s">
-        <v>74</v>
       </c>
       <c r="G174">
         <v>0.95882623760770702</v>
@@ -5187,19 +5187,19 @@
         <v>168</v>
       </c>
       <c r="B175" t="s">
-        <v>101</v>
-      </c>
-      <c r="C175">
+        <v>86</v>
+      </c>
+      <c r="C175" t="s">
+        <v>101</v>
+      </c>
+      <c r="D175">
         <v>4.5112985774931902</v>
       </c>
-      <c r="D175">
-        <v>10</v>
-      </c>
       <c r="E175">
+        <v>10</v>
+      </c>
+      <c r="F175">
         <v>0.92134865312443603</v>
-      </c>
-      <c r="F175" t="s">
-        <v>86</v>
       </c>
       <c r="G175">
         <v>0.95882623760770702</v>
@@ -5210,19 +5210,19 @@
         <v>72</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
-      </c>
-      <c r="C176">
+        <v>40</v>
+      </c>
+      <c r="C176" t="s">
+        <v>101</v>
+      </c>
+      <c r="D176">
         <v>3.9788139419881601</v>
       </c>
-      <c r="D176">
-        <v>10</v>
-      </c>
       <c r="E176">
+        <v>10</v>
+      </c>
+      <c r="F176">
         <v>0.94829766099808599</v>
-      </c>
-      <c r="F176" t="s">
-        <v>40</v>
       </c>
       <c r="G176">
         <v>0.96350415639133902</v>
@@ -5233,19 +5233,19 @@
         <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>101</v>
-      </c>
-      <c r="C177">
+        <v>62</v>
+      </c>
+      <c r="C177" t="s">
+        <v>101</v>
+      </c>
+      <c r="D177">
         <v>3.8618977865205899</v>
       </c>
-      <c r="D177">
-        <v>10</v>
-      </c>
       <c r="E177">
+        <v>10</v>
+      </c>
+      <c r="F177">
         <v>0.95336200737669297</v>
-      </c>
-      <c r="F177" t="s">
-        <v>62</v>
       </c>
       <c r="G177">
         <v>0.96350415639133902</v>
@@ -5256,19 +5256,19 @@
         <v>109</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
-      </c>
-      <c r="C178">
+        <v>59</v>
+      </c>
+      <c r="C178" t="s">
+        <v>100</v>
+      </c>
+      <c r="D178">
         <v>3.7847178962755801E-2</v>
       </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
       <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
         <v>0.84575032701953901</v>
-      </c>
-      <c r="F178" t="s">
-        <v>59</v>
       </c>
       <c r="G178">
         <v>0.96802748273320705</v>
@@ -5279,19 +5279,19 @@
         <v>127</v>
       </c>
       <c r="B179" t="s">
-        <v>100</v>
-      </c>
-      <c r="C179">
+        <v>66</v>
+      </c>
+      <c r="C179" t="s">
+        <v>100</v>
+      </c>
+      <c r="D179">
         <v>3.22326017657402E-2</v>
       </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
       <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
         <v>0.85751810667143202</v>
-      </c>
-      <c r="F179" t="s">
-        <v>66</v>
       </c>
       <c r="G179">
         <v>0.96981214444983299</v>
@@ -5302,19 +5302,19 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>101</v>
-      </c>
-      <c r="C180">
+        <v>95</v>
+      </c>
+      <c r="C180" t="s">
+        <v>101</v>
+      </c>
+      <c r="D180">
         <v>3.3503990251027398</v>
       </c>
-      <c r="D180">
-        <v>10</v>
-      </c>
       <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
         <v>0.97193549743318697</v>
-      </c>
-      <c r="F180" t="s">
-        <v>95</v>
       </c>
       <c r="G180">
         <v>0.97193549743318697</v>
@@ -5325,19 +5325,19 @@
         <v>73</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
-      </c>
-      <c r="C181">
+        <v>41</v>
+      </c>
+      <c r="C181" t="s">
+        <v>100</v>
+      </c>
+      <c r="D181">
         <v>1.8586269270292301E-2</v>
       </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
       <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
         <v>0.89155924795006203</v>
-      </c>
-      <c r="F181" t="s">
-        <v>41</v>
       </c>
       <c r="G181">
         <v>0.98547265456994304</v>
@@ -5348,19 +5348,19 @@
         <v>81</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
-      </c>
-      <c r="C182">
+        <v>45</v>
+      </c>
+      <c r="C182" t="s">
+        <v>100</v>
+      </c>
+      <c r="D182">
         <v>1.3167673350429E-2</v>
       </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
       <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
         <v>0.90864289852430802</v>
-      </c>
-      <c r="F182" t="s">
-        <v>45</v>
       </c>
       <c r="G182">
         <v>0.98547265456994304</v>
@@ -5371,19 +5371,19 @@
         <v>121</v>
       </c>
       <c r="B183" t="s">
-        <v>100</v>
-      </c>
-      <c r="C183">
+        <v>63</v>
+      </c>
+      <c r="C183" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183">
         <v>1.0295950244958199E-2</v>
       </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
       <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
         <v>0.91917819511861498</v>
-      </c>
-      <c r="F183" t="s">
-        <v>63</v>
       </c>
       <c r="G183">
         <v>0.98547265456994304</v>
@@ -5394,19 +5394,19 @@
         <v>165</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
-      </c>
-      <c r="C184">
+        <v>85</v>
+      </c>
+      <c r="C184" t="s">
+        <v>100</v>
+      </c>
+      <c r="D184">
         <v>1.11735354026361E-2</v>
       </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
       <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
         <v>0.91581645677392798</v>
-      </c>
-      <c r="F184" t="s">
-        <v>85</v>
       </c>
       <c r="G184">
         <v>0.98547265456994304</v>
@@ -5417,19 +5417,19 @@
         <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
-      </c>
-      <c r="C185">
+        <v>92</v>
+      </c>
+      <c r="C185" t="s">
+        <v>100</v>
+      </c>
+      <c r="D185">
         <v>9.2858279305201505E-3</v>
       </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
       <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
         <v>0.92323227638657801</v>
-      </c>
-      <c r="F185" t="s">
-        <v>92</v>
       </c>
       <c r="G185">
         <v>0.98547265456994304</v>
@@ -5440,19 +5440,19 @@
         <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>100</v>
-      </c>
-      <c r="C186">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>100</v>
+      </c>
+      <c r="D186">
         <v>2.1852114776127899E-3</v>
       </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
       <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
         <v>0.96271547195167595</v>
-      </c>
-      <c r="F186" t="s">
-        <v>22</v>
       </c>
       <c r="G186">
         <v>0.99239104028124503</v>
@@ -5463,19 +5463,19 @@
         <v>51</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
-      </c>
-      <c r="C187" s="1">
+        <v>30</v>
+      </c>
+      <c r="C187" t="s">
+        <v>100</v>
+      </c>
+      <c r="D187" s="1">
         <v>9.0946002112022803E-5</v>
       </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
       <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
         <v>0.99239104028124503</v>
-      </c>
-      <c r="F187" t="s">
-        <v>30</v>
       </c>
       <c r="G187">
         <v>0.99239104028124503</v>
@@ -5486,19 +5486,19 @@
         <v>53</v>
       </c>
       <c r="B188" t="s">
-        <v>100</v>
-      </c>
-      <c r="C188">
+        <v>31</v>
+      </c>
+      <c r="C188" t="s">
+        <v>100</v>
+      </c>
+      <c r="D188">
         <v>1.05532339102424E-4</v>
       </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
       <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
         <v>0.99180356111507195</v>
-      </c>
-      <c r="F188" t="s">
-        <v>31</v>
       </c>
       <c r="G188">
         <v>0.99239104028124503</v>
@@ -5509,19 +5509,19 @@
         <v>77</v>
       </c>
       <c r="B189" t="s">
-        <v>100</v>
-      </c>
-      <c r="C189">
+        <v>43</v>
+      </c>
+      <c r="C189" t="s">
+        <v>100</v>
+      </c>
+      <c r="D189">
         <v>2.7607092131387901E-3</v>
       </c>
-      <c r="D189">
-        <v>1</v>
-      </c>
       <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
         <v>0.95809647059788094</v>
-      </c>
-      <c r="F189" t="s">
-        <v>43</v>
       </c>
       <c r="G189">
         <v>0.99239104028124503</v>
@@ -5532,19 +5532,19 @@
         <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>100</v>
-      </c>
-      <c r="C190">
+        <v>83</v>
+      </c>
+      <c r="C190" t="s">
+        <v>100</v>
+      </c>
+      <c r="D190">
         <v>4.5043866221851402E-4</v>
       </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
       <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
         <v>0.98306733607850805</v>
-      </c>
-      <c r="F190" t="s">
-        <v>83</v>
       </c>
       <c r="G190">
         <v>0.99239104028124503</v>
@@ -5555,19 +5555,19 @@
         <v>175</v>
       </c>
       <c r="B191" t="s">
-        <v>100</v>
-      </c>
-      <c r="C191">
+        <v>90</v>
+      </c>
+      <c r="C191" t="s">
+        <v>100</v>
+      </c>
+      <c r="D191">
         <v>2.3891585348550402E-3</v>
       </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
       <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
         <v>0.96101570898819499</v>
-      </c>
-      <c r="F191" t="s">
-        <v>90</v>
       </c>
       <c r="G191">
         <v>0.99239104028124503</v>
